--- a/GATEWAY/A1#111SCSCOMPUTERS/SCS_SRL/ALCHYMIA/1.0.8/report-checklist.xlsx
+++ b/GATEWAY/A1#111SCSCOMPUTERS/SCS_SRL/ALCHYMIA/1.0.8/report-checklist.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SCS\#TODO\2023-01-09 - #4587 - FSE 2.0\collaudo_20230123\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SCS\#TODO\2023-01-09 - #4587 - FSE 2.0\collaudo_FSE_2.0_2023_01_23_aggiornamento_2023_01_27\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED07D9E0-06DD-4959-B0A8-FCE87C9E1F99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4604A6B-4A2D-4E2E-8399-ECCC307BD60B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-60" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases" sheetId="2" r:id="rId1"/>
@@ -423,9 +423,6 @@
     <t>Il sistema richiede forzatamente l'inserimento dell'identificativo della prescrizione</t>
   </si>
   <si>
-    <t>2023-01-23T09:29:49+01</t>
-  </si>
-  <si>
     <t>2023-01-23T09:29:51+01</t>
   </si>
   <si>
@@ -483,12 +480,6 @@
     <t>2.16.840.1.113883.2.9.2.100204.35022b3d5f37afc811e6538a823a6219e15c9c50a31ff02aab1e6ab531894d2a.f5406237fe^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
-    <t>299d231128a1352e</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.100204.30f2cc9003583c272a55484fe87cd81ff51c81582cefa167848b0e8fa79e95ca.523babd088^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
     <t>f0335ed88d6678ee</t>
   </si>
   <si>
@@ -505,6 +496,15 @@
   </si>
   <si>
     <t>2.16.840.1.113883.2.9.2.100204.88f216e07bc50b67e5f66b4528774fa49f22982ceaebf46eb678af9df4cfdfaa.915c9c097e^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2023-01-27T10:29:17+01</t>
+  </si>
+  <si>
+    <t>ec2e77a3d8854760</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.100204.249bf5a3552eb65172216d72dee6cc8ecfd98949c7ab23a63292656b95b2c074.ee17bdf76a^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
 </sst>
 </file>
@@ -809,6 +809,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -830,9 +833,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1130,10 +1130,10 @@
   <dimension ref="A1:O873"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="B10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="B11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="J26" sqref="J26"/>
+      <selection pane="bottomRight" activeCell="I13" sqref="F13:I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15"/>
@@ -1169,12 +1169,12 @@
       <c r="O1" s="2"/>
     </row>
     <row r="2" spans="1:15" ht="18.75">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="22"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="23"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
@@ -1187,14 +1187,14 @@
       <c r="O2" s="2"/>
     </row>
     <row r="3" spans="1:15" ht="15.75">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="25"/>
-      <c r="C3" s="30" t="s">
+      <c r="B3" s="26"/>
+      <c r="C3" s="31" t="s">
         <v>61</v>
       </c>
-      <c r="D3" s="22"/>
+      <c r="D3" s="23"/>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
@@ -1207,12 +1207,12 @@
       <c r="O3" s="2"/>
     </row>
     <row r="4" spans="1:15" ht="15.75">
-      <c r="A4" s="26"/>
-      <c r="B4" s="27"/>
-      <c r="C4" s="30" t="s">
+      <c r="A4" s="27"/>
+      <c r="B4" s="28"/>
+      <c r="C4" s="31" t="s">
         <v>62</v>
       </c>
-      <c r="D4" s="22"/>
+      <c r="D4" s="23"/>
       <c r="E4" s="1"/>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
@@ -1226,12 +1226,12 @@
       <c r="O4" s="2"/>
     </row>
     <row r="5" spans="1:15" ht="15.75">
-      <c r="A5" s="28"/>
-      <c r="B5" s="29"/>
-      <c r="C5" s="30" t="s">
+      <c r="A5" s="29"/>
+      <c r="B5" s="30"/>
+      <c r="C5" s="31" t="s">
         <v>63</v>
       </c>
-      <c r="D5" s="22"/>
+      <c r="D5" s="23"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
@@ -1244,8 +1244,8 @@
       <c r="O5" s="2"/>
     </row>
     <row r="6" spans="1:15">
-      <c r="A6" s="19"/>
-      <c r="B6" s="20"/>
+      <c r="A6" s="20"/>
+      <c r="B6" s="21"/>
       <c r="C6" s="6"/>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
@@ -1355,16 +1355,16 @@
         <v>66</v>
       </c>
       <c r="H10" s="14" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="I10" s="14" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="J10" s="15"/>
-      <c r="K10" s="31" t="s">
+      <c r="K10" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="L10" s="31"/>
+      <c r="L10" s="19"/>
       <c r="M10" s="15"/>
       <c r="N10" s="16"/>
       <c r="O10" s="17"/>
@@ -1392,16 +1392,16 @@
         <v>67</v>
       </c>
       <c r="H11" s="14" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="I11" s="14" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="J11" s="15"/>
-      <c r="K11" s="31" t="s">
+      <c r="K11" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="L11" s="31"/>
+      <c r="L11" s="19"/>
       <c r="M11" s="15"/>
       <c r="N11" s="16"/>
       <c r="O11" s="17"/>
@@ -1429,16 +1429,16 @@
         <v>68</v>
       </c>
       <c r="H12" s="14" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="I12" s="14" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="J12" s="15"/>
-      <c r="K12" s="31" t="s">
+      <c r="K12" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="L12" s="31"/>
+      <c r="L12" s="19"/>
       <c r="M12" s="15"/>
       <c r="N12" s="16"/>
       <c r="O12" s="17"/>
@@ -1460,22 +1460,22 @@
         <v>26</v>
       </c>
       <c r="F13" s="13">
-        <v>44949</v>
+        <v>44953</v>
       </c>
       <c r="G13" s="14" t="s">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="H13" s="14" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="I13" s="14" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="J13" s="15"/>
-      <c r="K13" s="31" t="s">
+      <c r="K13" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="L13" s="31"/>
+      <c r="L13" s="19"/>
       <c r="M13" s="15"/>
       <c r="N13" s="16"/>
       <c r="O13" s="17"/>
@@ -1500,16 +1500,16 @@
         <v>44949</v>
       </c>
       <c r="G14" s="14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H14" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="I14" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="I14" s="14" t="s">
-        <v>94</v>
-      </c>
       <c r="J14" s="15"/>
-      <c r="K14" s="31" t="s">
+      <c r="K14" s="19" t="s">
         <v>31</v>
       </c>
       <c r="L14" s="15"/>
@@ -1537,16 +1537,16 @@
         <v>44949</v>
       </c>
       <c r="G15" s="14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H15" s="14" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I15" s="14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J15" s="15"/>
-      <c r="K15" s="31" t="s">
+      <c r="K15" s="19" t="s">
         <v>31</v>
       </c>
       <c r="L15" s="15"/>
@@ -1576,16 +1576,16 @@
         <v>44949</v>
       </c>
       <c r="G16" s="14" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H16" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="I16" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="I16" s="14" t="s">
-        <v>91</v>
-      </c>
       <c r="J16" s="15"/>
-      <c r="K16" s="31" t="s">
+      <c r="K16" s="19" t="s">
         <v>31</v>
       </c>
       <c r="L16" s="15"/>
@@ -1620,7 +1620,7 @@
       <c r="J17" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="K17" s="31" t="s">
+      <c r="K17" s="19" t="s">
         <v>31</v>
       </c>
       <c r="L17" s="15"/>
@@ -1650,16 +1650,16 @@
         <v>44949</v>
       </c>
       <c r="G18" s="14" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H18" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="I18" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="I18" s="14" t="s">
-        <v>89</v>
-      </c>
       <c r="J18" s="15"/>
-      <c r="K18" s="31" t="s">
+      <c r="K18" s="19" t="s">
         <v>31</v>
       </c>
       <c r="L18" s="15"/>
@@ -1691,7 +1691,7 @@
       <c r="G19" s="14"/>
       <c r="H19" s="14"/>
       <c r="I19" s="14"/>
-      <c r="K19" s="31" t="s">
+      <c r="K19" s="19" t="s">
         <v>60</v>
       </c>
       <c r="L19" s="15"/>
@@ -1722,11 +1722,11 @@
       <c r="F20" s="13">
         <v>44949</v>
       </c>
-      <c r="K20" s="31" t="s">
+      <c r="K20" s="19" t="s">
         <v>60</v>
       </c>
       <c r="L20" s="15"/>
-      <c r="M20" s="31" t="s">
+      <c r="M20" s="19" t="s">
         <v>69</v>
       </c>
       <c r="N20" s="16" t="s">
@@ -1754,16 +1754,16 @@
         <v>44949</v>
       </c>
       <c r="G21" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="H21" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="H21" s="14" t="s">
+      <c r="I21" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="I21" s="14" t="s">
-        <v>81</v>
-      </c>
       <c r="J21" s="15"/>
-      <c r="K21" s="31" t="s">
+      <c r="K21" s="19" t="s">
         <v>31</v>
       </c>
       <c r="L21" s="15"/>
@@ -1793,16 +1793,16 @@
         <v>44949</v>
       </c>
       <c r="G22" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="H22" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="H22" s="14" t="s">
+      <c r="I22" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="I22" s="14" t="s">
-        <v>84</v>
-      </c>
       <c r="J22" s="15"/>
-      <c r="K22" s="31" t="s">
+      <c r="K22" s="19" t="s">
         <v>31</v>
       </c>
       <c r="L22" s="15"/>
@@ -1834,11 +1834,11 @@
       <c r="G23" s="14"/>
       <c r="H23" s="14"/>
       <c r="I23" s="14"/>
-      <c r="K23" s="31" t="s">
+      <c r="K23" s="19" t="s">
         <v>60</v>
       </c>
       <c r="L23" s="15"/>
-      <c r="M23" s="31" t="s">
+      <c r="M23" s="19" t="s">
         <v>70</v>
       </c>
       <c r="N23" s="16" t="s">
@@ -1868,11 +1868,11 @@
       <c r="G24" s="14"/>
       <c r="H24" s="14"/>
       <c r="I24" s="14"/>
-      <c r="K24" s="31" t="s">
+      <c r="K24" s="19" t="s">
         <v>60</v>
       </c>
       <c r="L24" s="15"/>
-      <c r="M24" s="31" t="s">
+      <c r="M24" s="19" t="s">
         <v>71</v>
       </c>
       <c r="N24" s="16" t="s">
@@ -1902,11 +1902,11 @@
       <c r="G25" s="14"/>
       <c r="H25" s="14"/>
       <c r="I25" s="14"/>
-      <c r="K25" s="31" t="s">
+      <c r="K25" s="19" t="s">
         <v>60</v>
       </c>
       <c r="L25" s="15"/>
-      <c r="M25" s="31" t="s">
+      <c r="M25" s="19" t="s">
         <v>74</v>
       </c>
       <c r="N25" s="16" t="s">
@@ -1934,16 +1934,16 @@
         <v>44949</v>
       </c>
       <c r="G26" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="H26" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="H26" s="14" t="s">
+      <c r="I26" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="I26" s="14" t="s">
-        <v>87</v>
-      </c>
       <c r="J26" s="15"/>
-      <c r="K26" s="31" t="s">
+      <c r="K26" s="19" t="s">
         <v>31</v>
       </c>
       <c r="L26" s="15"/>
@@ -1976,11 +1976,11 @@
       <c r="H27" s="14"/>
       <c r="I27" s="14"/>
       <c r="J27" s="15"/>
-      <c r="K27" s="31" t="s">
+      <c r="K27" s="19" t="s">
         <v>60</v>
       </c>
       <c r="L27" s="15"/>
-      <c r="M27" s="31" t="s">
+      <c r="M27" s="19" t="s">
         <v>72</v>
       </c>
       <c r="N27" s="16" t="s">
@@ -2011,11 +2011,11 @@
       <c r="H28" s="14"/>
       <c r="I28" s="14"/>
       <c r="J28" s="15"/>
-      <c r="K28" s="31" t="s">
+      <c r="K28" s="19" t="s">
         <v>60</v>
       </c>
       <c r="L28" s="15"/>
-      <c r="M28" s="31" t="s">
+      <c r="M28" s="19" t="s">
         <v>73</v>
       </c>
       <c r="N28" s="16" t="s">

--- a/GATEWAY/A1#111SCSCOMPUTERS/SCS_SRL/ALCHYMIA/1.0.8/report-checklist.xlsx
+++ b/GATEWAY/A1#111SCSCOMPUTERS/SCS_SRL/ALCHYMIA/1.0.8/report-checklist.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SCS\#TODO\2023-01-09 - #4587 - FSE 2.0\collaudo_FSE_2.0_2023_01_23_aggiornamento_2023_01_27\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Port.Calvaresi\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4604A6B-4A2D-4E2E-8399-ECCC307BD60B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51DF0B32-A836-4DAC-B0B7-EF2F124B3C1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2325" yWindow="-14505" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases" sheetId="2" r:id="rId1"/>
@@ -92,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="105">
   <si>
     <t>NOME FORNITORE:</t>
   </si>
@@ -505,6 +505,12 @@
   </si>
   <si>
     <t>2.16.840.1.113883.2.9.2.100204.249bf5a3552eb65172216d72dee6cc8ecfd98949c7ab23a63292656b95b2c074.ee17bdf76a^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>In caso di errore il sistema genera una segnalazione contenente i log di errore.</t>
+  </si>
+  <si>
+    <t>In caso di errore il sistema genera una segnalazione contenente i log di errore con avviso di modificare la codifica della specialità configurata a sistema.</t>
   </si>
 </sst>
 </file>
@@ -1130,10 +1136,10 @@
   <dimension ref="A1:O873"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="B11" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="E22" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="I13" sqref="F13:I13"/>
+      <selection pane="bottomRight" activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15"/>
@@ -1143,7 +1149,7 @@
     <col min="3" max="3" width="24.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="41.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="104.7109375" customWidth="1"/>
-    <col min="6" max="6" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.42578125" customWidth="1"/>
     <col min="7" max="7" width="19.85546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15.5703125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="34.28515625" bestFit="1" customWidth="1"/>
@@ -1545,7 +1551,9 @@
       <c r="I15" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="J15" s="15"/>
+      <c r="J15" s="15" t="s">
+        <v>103</v>
+      </c>
       <c r="K15" s="19" t="s">
         <v>31</v>
       </c>
@@ -1584,7 +1592,9 @@
       <c r="I16" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="J16" s="15"/>
+      <c r="J16" s="15" t="s">
+        <v>103</v>
+      </c>
       <c r="K16" s="19" t="s">
         <v>31</v>
       </c>
@@ -1658,7 +1668,9 @@
       <c r="I18" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="J18" s="15"/>
+      <c r="J18" s="15" t="s">
+        <v>103</v>
+      </c>
       <c r="K18" s="19" t="s">
         <v>31</v>
       </c>
@@ -1762,7 +1774,9 @@
       <c r="I21" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="J21" s="15"/>
+      <c r="J21" s="15" t="s">
+        <v>103</v>
+      </c>
       <c r="K21" s="19" t="s">
         <v>31</v>
       </c>
@@ -1801,7 +1815,9 @@
       <c r="I22" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="J22" s="15"/>
+      <c r="J22" s="15" t="s">
+        <v>103</v>
+      </c>
       <c r="K22" s="19" t="s">
         <v>31</v>
       </c>
@@ -1942,7 +1958,9 @@
       <c r="I26" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="J26" s="15"/>
+      <c r="J26" s="15" t="s">
+        <v>104</v>
+      </c>
       <c r="K26" s="19" t="s">
         <v>31</v>
       </c>

--- a/GATEWAY/A1#111SCSCOMPUTERS/SCS_SRL/ALCHYMIA/1.0.8/report-checklist.xlsx
+++ b/GATEWAY/A1#111SCSCOMPUTERS/SCS_SRL/ALCHYMIA/1.0.8/report-checklist.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Port.Calvaresi\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pc.Davide\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51DF0B32-A836-4DAC-B0B7-EF2F124B3C1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8E988E2-4237-48FF-AC9B-899A141D49BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2325" yWindow="-14505" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases" sheetId="2" r:id="rId1"/>
@@ -92,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="106">
   <si>
     <t>NOME FORNITORE:</t>
   </si>
@@ -511,6 +511,9 @@
   </si>
   <si>
     <t>In caso di errore il sistema genera una segnalazione contenente i log di errore con avviso di modificare la codifica della specialità configurata a sistema.</t>
+  </si>
+  <si>
+    <t>In caso di errore il sistema genera una segnalazione visibile dall'utente come una finestra di alert nell'applicativo, contenente i log di errore. L'utente può gestire l'errore autonomamente o contattando il nostro helpdesk</t>
   </si>
 </sst>
 </file>
@@ -1136,10 +1139,10 @@
   <dimension ref="A1:O873"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="E22" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="E18" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="J26" sqref="J26"/>
+      <selection pane="bottomRight" activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15"/>
@@ -1291,7 +1294,7 @@
       <c r="N8" s="5"/>
       <c r="O8" s="2"/>
     </row>
-    <row r="9" spans="1:15" ht="19.5" thickBot="1">
+    <row r="9" spans="1:15" ht="38.25" thickBot="1">
       <c r="A9" s="7" t="s">
         <v>2</v>
       </c>
@@ -1640,7 +1643,7 @@
       </c>
       <c r="O17" s="17"/>
     </row>
-    <row r="18" spans="1:15" ht="120.75" thickBot="1">
+    <row r="18" spans="1:15" ht="150.75" thickBot="1">
       <c r="A18" s="10">
         <v>52</v>
       </c>
@@ -1669,7 +1672,7 @@
         <v>88</v>
       </c>
       <c r="J18" s="15" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="K18" s="19" t="s">
         <v>31</v>
@@ -1746,7 +1749,7 @@
       </c>
       <c r="O20" s="17"/>
     </row>
-    <row r="21" spans="1:15" ht="120.75" thickBot="1">
+    <row r="21" spans="1:15" ht="150.75" thickBot="1">
       <c r="A21" s="10">
         <v>55</v>
       </c>
@@ -1775,7 +1778,7 @@
         <v>80</v>
       </c>
       <c r="J21" s="15" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="K21" s="19" t="s">
         <v>31</v>
@@ -1787,7 +1790,7 @@
       </c>
       <c r="O21" s="17"/>
     </row>
-    <row r="22" spans="1:15" ht="120.75" thickBot="1">
+    <row r="22" spans="1:15" ht="150.75" thickBot="1">
       <c r="A22" s="10">
         <v>56</v>
       </c>
@@ -1816,7 +1819,7 @@
         <v>83</v>
       </c>
       <c r="J22" s="15" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="K22" s="19" t="s">
         <v>31</v>
